--- a/catkin_ws/src/icra2024/src/MDPs/policy_right_lane.xlsx
+++ b/catkin_ws/src/icra2024/src/MDPs/policy_right_lane.xlsx
@@ -20,12 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1479" uniqueCount="48">
   <si>
     <t xml:space="preserve">Polìtica original V1</t>
   </si>
   <si>
     <t xml:space="preserve">V2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V1 modificada</t>
   </si>
   <si>
     <t xml:space="preserve">Policy(f_N(0)=0</t>
@@ -46,7 +49,13 @@
     <t xml:space="preserve"> success(0)=0) = stop</t>
   </si>
   <si>
+    <t xml:space="preserve"> success(0)=0) = keep_distance</t>
+  </si>
+  <si>
     <t xml:space="preserve">Policy(f_N(0)=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> success(0)=0) = cruise</t>
   </si>
   <si>
     <t xml:space="preserve"> f_NW(0)=1</t>
@@ -56,6 +65,9 @@
   </si>
   <si>
     <t xml:space="preserve"> sW1(0)=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> success(0)=0) = change_lane</t>
   </si>
   <si>
     <t xml:space="preserve"> sW2(0)=1</t>
@@ -75,6 +87,87 @@
 0  1  SW car has equal speed
 0  0  SW car has faster speed</t>
   </si>
+  <si>
+    <t xml:space="preserve">Policy(free_N(0)=0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> free_NW(0)=0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> free_W(0)=0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sW2(0)=0) = keep_distance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Policy(free_E(0)=0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> free_N(0)=0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> free_NE(0)=0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sE1(0)=0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sE2(0)=0) = keep_distance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Policy(free_N(0)=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sW2(0)=0) = cruise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Policy(free_E(0)=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> free_NW(0)=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> free_N(0)=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sE2(0)=0) = cruise</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> free_W(0)=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> free_NE(0)=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sE1(0)=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sE2(0)=0) = change_lane</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sW2(0)=0) = change_lane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">change_lane</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sW2(0)=1) = keep_distance</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sE2(0)=1) = keep_distance</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sW2(0)=1) = cruise</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sE2(0)=1) = cruise</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sE2(0)=1) = change_lane</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sW2(0)=1) = change_lane</t>
+  </si>
 </sst>
 </file>
 
@@ -88,6 +181,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -177,15 +271,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N68"/>
+  <dimension ref="A1:V102"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H47" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M66" activeCellId="0" sqref="M66"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F74" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O102" activeCellId="0" sqref="O102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="4.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="9.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="15.28"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -195,2446 +296,4634 @@
       <c r="I1" s="0" t="s">
         <v>1</v>
       </c>
+      <c r="Q1" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="S2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="T2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="U2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="V2" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="S3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="T3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="U3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="V3" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="R4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="T4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="U4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="V4" s="0" t="s">
         <v>9</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="S5" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="T5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="U5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="V5" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="S6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="T6" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="U6" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="V6" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="Q7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R7" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="S7" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="T7" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="U7" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="V7" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q8" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="R8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="S8" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="T8" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="U8" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="V8" s="0" t="s">
         <v>9</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="J8" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="K8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L8" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="M8" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="N8" s="0" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="Q9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R9" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="S9" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="T9" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="U9" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="V9" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="Q10" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="R10" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="T10" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="U10" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="V10" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R11" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="S11" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="T11" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="U11" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="V11" s="0" t="s">
         <v>11</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J11" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="K11" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="L11" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="M11" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="N11" s="0" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B12" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="N12" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q12" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="R12" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="S12" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="T12" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="U12" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="V12" s="0" t="s">
         <v>9</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="I12" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="J12" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="K12" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="L12" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="M12" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="N12" s="0" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="M13" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="N13" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q13" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R13" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="S13" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="T13" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="U13" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="V13" s="0" t="s">
         <v>11</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="I13" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J13" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="K13" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="L13" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="M13" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="N13" s="0" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="Q14" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="R14" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="T14" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="U14" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="V14" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D15" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="M15" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="N15" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q15" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R15" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="S15" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="T15" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="U15" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="V15" s="0" t="s">
         <v>11</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="I15" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J15" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="K15" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L15" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="M15" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="N15" s="0" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="Q16" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="R16" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="S16" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="T16" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="U16" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="V16" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D17" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="M17" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="N17" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q17" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R17" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="S17" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="T17" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="U17" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="V17" s="0" t="s">
         <v>11</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="I17" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J17" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="K17" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L17" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="M17" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="N17" s="0" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="Q18" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="R18" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="S18" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="T18" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="U18" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="V18" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="Q19" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R19" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="S19" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="T19" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="U19" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="V19" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B20" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="L20" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="M20" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="N20" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q20" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="R20" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="S20" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="T20" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="U20" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="V20" s="0" t="s">
         <v>9</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="I20" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="J20" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="K20" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="L20" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="M20" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="N20" s="0" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N21" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="Q21" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R21" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="S21" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="T21" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="U21" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="V21" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N22" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="Q22" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="R22" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="S22" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="T22" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="U22" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="V22" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N23" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="Q23" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R23" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="S23" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="T23" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="U23" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="V23" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B24" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="K24" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="L24" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="M24" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="N24" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q24" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="R24" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="S24" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="T24" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="U24" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="V24" s="0" t="s">
         <v>9</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="I24" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="J24" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="K24" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L24" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="M24" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="N24" s="0" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N25" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="Q25" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R25" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="S25" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="T25" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="U25" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="V25" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="Q26" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="R26" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="S26" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="T26" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="U26" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="V26" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="K27" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="L27" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="M27" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="N27" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q27" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R27" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="S27" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="T27" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="U27" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="V27" s="0" t="s">
         <v>11</v>
-      </c>
-      <c r="E27" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="I27" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J27" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="K27" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="L27" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="M27" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="N27" s="0" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B28" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="K28" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="L28" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="M28" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="N28" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q28" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="R28" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="S28" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="T28" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="U28" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="V28" s="0" t="s">
         <v>9</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="I28" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="J28" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="K28" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="L28" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="M28" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="N28" s="0" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="K29" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="M29" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="N29" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R29" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="S29" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="T29" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="U29" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="V29" s="0" t="s">
         <v>11</v>
-      </c>
-      <c r="E29" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="I29" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="K29" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="L29" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="M29" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="N29" s="0" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="Q30" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="R30" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="S30" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="T30" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="U30" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="V30" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D31" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I31" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J31" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="K31" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="L31" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="M31" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="N31" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q31" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R31" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="S31" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="T31" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="U31" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="V31" s="0" t="s">
         <v>11</v>
-      </c>
-      <c r="E31" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="I31" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J31" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="K31" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L31" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="M31" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="N31" s="0" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N32" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="Q32" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="R32" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="S32" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="T32" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="U32" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="V32" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D33" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J33" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="K33" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="L33" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="M33" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="N33" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q33" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R33" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="S33" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="T33" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="U33" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="V33" s="0" t="s">
         <v>11</v>
-      </c>
-      <c r="E33" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="I33" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J33" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="K33" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L33" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="M33" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="N33" s="0" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N34" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="Q34" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="R34" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="S34" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="T34" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="U34" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="V34" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N35" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="Q35" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R35" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="S35" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="T35" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="U35" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="V35" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N36" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="Q36" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="R36" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="S36" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="T36" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="U36" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="V36" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L37" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M37" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N37" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="Q37" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R37" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="S37" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="T37" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="U37" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="V37" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K38" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L38" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N38" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="Q38" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="R38" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="S38" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="T38" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="U38" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="V38" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K39" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L39" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M39" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N39" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="Q39" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R39" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="S39" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="T39" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="U39" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="V39" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K40" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L40" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M40" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N40" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="Q40" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="R40" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="S40" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="T40" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="U40" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="V40" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K41" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L41" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M41" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N41" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="Q41" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R41" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="S41" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="T41" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="U41" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="V41" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K42" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L42" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M42" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N42" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="Q42" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="R42" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="S42" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="T42" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="U42" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="V42" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K43" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L43" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M43" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N43" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="Q43" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R43" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="S43" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="T43" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="U43" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="V43" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K44" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L44" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M44" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N44" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="Q44" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="R44" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="S44" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="T44" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="U44" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="V44" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K45" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L45" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M45" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N45" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="Q45" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R45" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="S45" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="T45" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="U45" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="V45" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K46" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L46" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M46" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N46" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="Q46" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="R46" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="S46" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="T46" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="U46" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="V46" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K47" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L47" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M47" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N47" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="Q47" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R47" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="S47" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="T47" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="U47" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="V47" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K48" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L48" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M48" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N48" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="Q48" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="R48" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="S48" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="T48" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="U48" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="V48" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K49" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L49" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M49" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N49" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="Q49" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R49" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="S49" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="T49" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="U49" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="V49" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K50" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L50" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M50" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N50" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="Q50" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="R50" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="S50" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="T50" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="U50" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="V50" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K51" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L51" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M51" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N51" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="Q51" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R51" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="S51" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="T51" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="U51" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="V51" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K52" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L52" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M52" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N52" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="Q52" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="R52" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="S52" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="T52" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="U52" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="V52" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K53" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L53" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M53" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N53" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="Q53" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R53" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="S53" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="T53" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="U53" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="V53" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K54" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L54" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M54" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N54" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="Q54" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="R54" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="S54" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="T54" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="U54" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="V54" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K55" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L55" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M55" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N55" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="Q55" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R55" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="S55" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="T55" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="U55" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="V55" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K56" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L56" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M56" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N56" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="Q56" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="R56" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="S56" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="T56" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="U56" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="V56" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I57" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K57" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L57" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M57" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N57" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="Q57" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R57" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="S57" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="T57" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="U57" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="V57" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I58" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K58" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L58" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M58" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N58" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="Q58" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="R58" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="S58" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="T58" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="U58" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="V58" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J59" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K59" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L59" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M59" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N59" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="Q59" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R59" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="S59" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="T59" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="U59" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="V59" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I60" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J60" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K60" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L60" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M60" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N60" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="Q60" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="R60" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="S60" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="T60" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="U60" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="V60" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I61" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J61" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K61" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L61" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M61" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N61" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="Q61" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R61" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="S61" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="T61" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="U61" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="V61" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I62" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J62" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K62" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L62" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M62" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N62" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="Q62" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="R62" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="S62" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="T62" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="U62" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="V62" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I63" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J63" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K63" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L63" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M63" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N63" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="Q63" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R63" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="S63" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="T63" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="U63" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="V63" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J64" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K64" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L64" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M64" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N64" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="Q64" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="R64" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="S64" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="T64" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="U64" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="V64" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I65" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J65" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K65" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L65" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M65" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N65" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>18</v>
+      </c>
+      <c r="Q65" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R65" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="S65" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="T65" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="U65" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="V65" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="84.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1"/>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D71" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E71" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H71" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I71" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="J71" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="K71" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="L71" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E72" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H72" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I72" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="J72" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="K72" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="L72" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D73" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E73" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H73" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I73" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="J73" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="K73" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="L73" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D74" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E74" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H74" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I74" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="J74" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="K74" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="L74" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D75" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E75" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H75" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I75" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="J75" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="K75" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="L75" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D76" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E76" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H76" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I76" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="J76" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="K76" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="L76" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D77" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E77" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H77" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I77" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="J77" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="K77" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="L77" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D78" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E78" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H78" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I78" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="J78" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="K78" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="L78" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D79" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E79" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H79" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I79" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="J79" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="K79" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="L79" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D80" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E80" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H80" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I80" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="J80" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="K80" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="L80" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D81" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E81" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H81" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I81" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="J81" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="K81" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="L81" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D82" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E82" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H82" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I82" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="J82" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="K82" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="L82" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C83" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D83" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E83" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H83" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I83" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="J83" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="K83" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="L83" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C84" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D84" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E84" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H84" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I84" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="J84" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="K84" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="L84" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C85" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D85" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E85" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="H85" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I85" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="J85" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="K85" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="L85" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C86" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D86" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E86" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H86" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I86" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="J86" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="K86" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="L86" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="O86" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D87" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E87" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H87" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I87" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="J87" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="K87" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="L87" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D88" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E88" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H88" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I88" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="J88" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="K88" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="L88" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C89" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D89" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E89" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H89" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I89" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="J89" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="K89" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="L89" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C90" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D90" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E90" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H90" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I90" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="J90" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="K90" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="L90" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C91" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D91" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E91" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H91" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I91" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="J91" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="K91" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="L91" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D92" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E92" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H92" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I92" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="J92" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="K92" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="L92" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C93" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D93" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E93" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="H93" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I93" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="J93" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="K93" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="L93" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C94" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D94" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E94" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H94" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I94" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="J94" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="K94" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="L94" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="O94" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C95" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D95" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E95" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H95" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I95" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="J95" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="K95" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="L95" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C96" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D96" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E96" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H96" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I96" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="J96" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="K96" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="L96" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C97" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D97" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E97" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H97" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I97" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="J97" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="K97" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="L97" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C98" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D98" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E98" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H98" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I98" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="J98" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="K98" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="L98" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C99" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D99" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E99" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H99" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I99" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="J99" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="K99" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="L99" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C100" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D100" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E100" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H100" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I100" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="J100" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="K100" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="L100" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C101" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D101" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E101" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="H101" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I101" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="J101" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="K101" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="L101" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C102" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D102" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E102" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H102" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I102" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="J102" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="K102" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="L102" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="O102" s="0" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/catkin_ws/src/icra2024/src/MDPs/policy_right_lane.xlsx
+++ b/catkin_ws/src/icra2024/src/MDPs/policy_right_lane.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="32" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="16" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1479" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="55">
   <si>
     <t xml:space="preserve">Polìtica original V1</t>
   </si>
@@ -167,6 +168,27 @@
   </si>
   <si>
     <t xml:space="preserve"> sW2(0)=1) = change_lane</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> free_SW(0)=0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> free_W(0)=0) = keep_distance</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> free_W(0)=0) = cruise</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> free_SW(0)=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> free_W(0)=1) = keep_distance</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> free_W(0)=1) = cruise</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> free_W(0)=1) = change_lane</t>
   </si>
 </sst>
 </file>
@@ -176,7 +198,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -197,6 +219,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -241,7 +269,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -252,6 +280,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -273,11 +305,11 @@
   </sheetPr>
   <dimension ref="A1:V102"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F74" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F74" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="O102" activeCellId="0" sqref="O102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.29"/>
@@ -4934,4 +4966,259 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A2:D17"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="71" zoomScaleNormal="71" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="22.921875" defaultRowHeight="26.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="38.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="30.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="29.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="29.16"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="3" width="22.89"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/catkin_ws/src/icra2024/src/MDPs/policy_right_lane.xlsx
+++ b/catkin_ws/src/icra2024/src/MDPs/policy_right_lane.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1608" uniqueCount="56">
   <si>
     <t xml:space="preserve">Polìtica original V1</t>
   </si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t xml:space="preserve"> sW2(0)=1) = change_lane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Misma velocidad</t>
   </si>
   <si>
     <t xml:space="preserve"> free_SW(0)=0</t>
@@ -309,7 +312,7 @@
       <selection pane="topLeft" activeCell="O102" activeCellId="0" sqref="O102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.29"/>
@@ -4973,21 +4976,31 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:D17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="71" zoomScaleNormal="71" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="71" zoomScaleNormal="71" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.921875" defaultRowHeight="26.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.9140625" defaultRowHeight="26.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="38.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="30.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="29.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="29.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="29.16"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="3" width="22.89"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="3" width="22.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="36.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="29.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="29.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="27.98"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="11" style="3" width="22.89"/>
   </cols>
   <sheetData>
+    <row r="1" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G1" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
     <row r="2" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>21</v>
@@ -4996,10 +5009,22 @@
         <v>22</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>49</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5010,10 +5035,22 @@
         <v>22</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5024,10 +5061,22 @@
         <v>33</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>49</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5038,10 +5087,22 @@
         <v>33</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5052,10 +5113,22 @@
         <v>22</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5066,10 +5139,22 @@
         <v>22</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>50</v>
+      <c r="G7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5080,10 +5165,22 @@
         <v>33</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5094,10 +5191,22 @@
         <v>33</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>50</v>
+      <c r="G9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5108,10 +5217,22 @@
         <v>22</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5122,10 +5243,22 @@
         <v>22</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5136,10 +5269,22 @@
         <v>33</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5150,10 +5295,22 @@
         <v>33</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5164,10 +5321,22 @@
         <v>22</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>52</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5178,10 +5347,22 @@
         <v>22</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5192,10 +5373,22 @@
         <v>33</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5206,10 +5399,22 @@
         <v>33</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
